--- a/data/weight_data.xlsx
+++ b/data/weight_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive - University of Cape Town\OneDrive - University of Cape Town\msc_thesis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive - University of Cape Town\OneDrive - University of Cape Town\msc_thesis\parechinus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF267D57-ECF9-4BA7-9119-BF1CBD6C17B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916ABF1B-402A-44A1-AA9D-0273EAF2D7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3DFED81F-3089-4A47-B1B1-28CFD718E7D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3DFED81F-3089-4A47-B1B1-28CFD718E7D1}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="29">
   <si>
     <t>kelp</t>
   </si>
@@ -126,6 +126,9 @@
   <si>
     <t>Average of weight (g)</t>
   </si>
+  <si>
+    <t>Sum of weight (g)</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -169,7 +172,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -510,112 +512,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>19.321052631578947</c:v>
+                  <c:v>367.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.973684210526313</c:v>
+                  <c:v>284.49999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.078947368421055</c:v>
+                  <c:v>305.50000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.621052631578948</c:v>
+                  <c:v>315.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.089999999999996</c:v>
+                  <c:v>500.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.615789473684206</c:v>
+                  <c:v>334.69999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.189473684210526</c:v>
+                  <c:v>421.59999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.436842105263157</c:v>
+                  <c:v>331.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.44736842105263</c:v>
+                  <c:v>350.49999999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7666666666666666</c:v>
+                  <c:v>60.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.889473684210529</c:v>
+                  <c:v>263.90000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.289473684210527</c:v>
+                  <c:v>347.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.731578947368423</c:v>
+                  <c:v>374.90000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.394736842105264</c:v>
+                  <c:v>368.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.721052631578948</c:v>
+                  <c:v>279.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.747368421052634</c:v>
+                  <c:v>280.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.157894736842106</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.178947368421053</c:v>
+                  <c:v>307.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.684210526315793</c:v>
+                  <c:v>279.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.642105263157895</c:v>
+                  <c:v>259.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.763157894736842</c:v>
+                  <c:v>318.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.942105263157893</c:v>
+                  <c:v>283.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.278947368421054</c:v>
+                  <c:v>366.3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.057894736842105</c:v>
+                  <c:v>324.09999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.994736842105265</c:v>
+                  <c:v>284.90000000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.278947368421054</c:v>
+                  <c:v>309.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15.169230769230769</c:v>
+                  <c:v>197.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.257894736842104</c:v>
+                  <c:v>346.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.705263157894739</c:v>
+                  <c:v>260.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17.210526315789469</c:v>
+                  <c:v>326.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17.831578947368421</c:v>
+                  <c:v>338.8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.110526315789475</c:v>
+                  <c:v>325.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.426315789473684</c:v>
+                  <c:v>312.09999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15.84736842105263</c:v>
+                  <c:v>301.09999999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18.784210526315793</c:v>
+                  <c:v>356.90000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6662,7 +6664,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96208C28-E9BA-4FAA-BE8A-FF04C077A72F}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{96208C28-E9BA-4FAA-BE8A-FF04C077A72F}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -6903,7 +6905,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of weight (g)" fld="4" subtotal="average" baseField="2" baseItem="0"/>
+    <dataField name="Sum of weight (g)" fld="4" baseField="3" baseItem="1"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -6929,7 +6931,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{929E79FF-2720-4E8F-8792-C873F4D74D52}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{929E79FF-2720-4E8F-8792-C873F4D74D52}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -7509,8 +7511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929544EF-C65E-4D28-BDC0-3044DD691E39}">
   <dimension ref="A1:F642"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A457" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I623" sqref="I623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18892,13 +18894,13 @@
         <v>1</v>
       </c>
       <c r="C623" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D623" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E623">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.35">
@@ -18906,7 +18908,7 @@
         <v>22</v>
       </c>
       <c r="B624">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C624" t="s">
         <v>20</v>
@@ -18915,7 +18917,7 @@
         <v>5</v>
       </c>
       <c r="E624">
-        <v>0.7</v>
+        <v>437</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.35">
@@ -18923,7 +18925,7 @@
         <v>22</v>
       </c>
       <c r="B625">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C625" t="s">
         <v>20</v>
@@ -18932,7 +18934,7 @@
         <v>5</v>
       </c>
       <c r="E625">
-        <v>437</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.35">
@@ -18940,7 +18942,7 @@
         <v>22</v>
       </c>
       <c r="B626">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C626" t="s">
         <v>20</v>
@@ -18949,7 +18951,10 @@
         <v>5</v>
       </c>
       <c r="E626">
-        <v>7.9</v>
+        <v>6.6</v>
+      </c>
+      <c r="F626" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.35">
@@ -18957,7 +18962,7 @@
         <v>22</v>
       </c>
       <c r="B627">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C627" t="s">
         <v>20</v>
@@ -18966,10 +18971,10 @@
         <v>5</v>
       </c>
       <c r="E627">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="F627" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.35">
@@ -18977,7 +18982,7 @@
         <v>22</v>
       </c>
       <c r="B628">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C628" t="s">
         <v>20</v>
@@ -18986,10 +18991,7 @@
         <v>5</v>
       </c>
       <c r="E628">
-        <v>5.8</v>
-      </c>
-      <c r="F628" t="s">
-        <v>8</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.35">
@@ -18997,7 +18999,7 @@
         <v>22</v>
       </c>
       <c r="B629">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C629" t="s">
         <v>20</v>
@@ -19006,7 +19008,7 @@
         <v>5</v>
       </c>
       <c r="E629">
-        <v>10.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.35">
@@ -19014,7 +19016,7 @@
         <v>22</v>
       </c>
       <c r="B630">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C630" t="s">
         <v>20</v>
@@ -19023,7 +19025,7 @@
         <v>5</v>
       </c>
       <c r="E630">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.35">
@@ -19031,7 +19033,7 @@
         <v>22</v>
       </c>
       <c r="B631">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C631" t="s">
         <v>20</v>
@@ -19040,7 +19042,7 @@
         <v>5</v>
       </c>
       <c r="E631">
-        <v>6.2</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.35">
@@ -19048,7 +19050,7 @@
         <v>22</v>
       </c>
       <c r="B632">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C632" t="s">
         <v>20</v>
@@ -19057,7 +19059,7 @@
         <v>5</v>
       </c>
       <c r="E632">
-        <v>10.4</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.35">
@@ -19065,16 +19067,16 @@
         <v>22</v>
       </c>
       <c r="B633">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C633" t="s">
         <v>20</v>
       </c>
       <c r="D633" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E633">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.35">
@@ -19082,7 +19084,7 @@
         <v>22</v>
       </c>
       <c r="B634">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C634" t="s">
         <v>20</v>
@@ -19091,7 +19093,7 @@
         <v>21</v>
       </c>
       <c r="E634">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.35">
@@ -19099,7 +19101,7 @@
         <v>22</v>
       </c>
       <c r="B635">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C635" t="s">
         <v>20</v>
@@ -19108,7 +19110,7 @@
         <v>21</v>
       </c>
       <c r="E635">
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.35">
@@ -19116,7 +19118,7 @@
         <v>22</v>
       </c>
       <c r="B636">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C636" t="s">
         <v>20</v>
@@ -19125,7 +19127,10 @@
         <v>21</v>
       </c>
       <c r="E636">
-        <v>4.8</v>
+        <v>5.7</v>
+      </c>
+      <c r="F636" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.35">
@@ -19133,7 +19138,7 @@
         <v>22</v>
       </c>
       <c r="B637">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C637" t="s">
         <v>20</v>
@@ -19142,10 +19147,7 @@
         <v>21</v>
       </c>
       <c r="E637">
-        <v>5.7</v>
-      </c>
-      <c r="F637" t="s">
-        <v>10</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.35">
@@ -19153,7 +19155,7 @@
         <v>22</v>
       </c>
       <c r="B638">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C638" t="s">
         <v>20</v>
@@ -19162,7 +19164,7 @@
         <v>21</v>
       </c>
       <c r="E638">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.35">
@@ -19170,7 +19172,7 @@
         <v>22</v>
       </c>
       <c r="B639">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C639" t="s">
         <v>20</v>
@@ -19179,7 +19181,10 @@
         <v>21</v>
       </c>
       <c r="E639">
-        <v>6.5</v>
+        <v>7.8</v>
+      </c>
+      <c r="F639" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.35">
@@ -19187,7 +19192,7 @@
         <v>22</v>
       </c>
       <c r="B640">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C640" t="s">
         <v>20</v>
@@ -19196,10 +19201,7 @@
         <v>21</v>
       </c>
       <c r="E640">
-        <v>7.8</v>
-      </c>
-      <c r="F640" t="s">
-        <v>8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.35">
@@ -19207,7 +19209,7 @@
         <v>22</v>
       </c>
       <c r="B641">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C641" t="s">
         <v>20</v>
@@ -19216,7 +19218,7 @@
         <v>21</v>
       </c>
       <c r="E641">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.35">
@@ -19224,7 +19226,7 @@
         <v>22</v>
       </c>
       <c r="B642">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C642" t="s">
         <v>20</v>
@@ -19233,7 +19235,7 @@
         <v>21</v>
       </c>
       <c r="E642">
-        <v>7.1</v>
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
@@ -19243,343 +19245,367 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F4A94E-90E6-4403-9330-FC9EB00B679B}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4">
-        <v>19.139181286549707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>3272.7999999999997</v>
+      </c>
+      <c r="O2">
+        <v>318.22500000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>20.625581395348838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="B3">
+        <v>1773.7999999999997</v>
+      </c>
+      <c r="O3">
+        <v>359.52499999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>19.321052631578947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="B4">
+        <v>367.1</v>
+      </c>
+      <c r="O4">
+        <v>338.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
-        <v>14.973684210526313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4">
-        <v>16.078947368421055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="B5">
+        <v>284.49999999999994</v>
+      </c>
+      <c r="O5">
+        <v>298.32499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>305.50000000000006</v>
+      </c>
+      <c r="O6">
+        <v>285.14999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>24</v>
       </c>
-      <c r="B7" s="4">
-        <v>16.621052631578948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="B7">
+        <v>315.8</v>
+      </c>
+      <c r="O7">
+        <v>321.14999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4">
-        <v>50.089999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>500.9</v>
+      </c>
+      <c r="O8">
+        <v>318.27499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4">
-        <v>17.63529411764706</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="B9">
+        <v>1499</v>
+      </c>
+      <c r="O9">
+        <v>323.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="4">
-        <v>17.615789473684206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="B10">
+        <v>334.69999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
-        <v>22.189473684210526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="B11">
+        <v>421.59999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>26</v>
       </c>
-      <c r="B12" s="4">
-        <v>17.436842105263157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="B12">
+        <v>331.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>30</v>
       </c>
-      <c r="B13" s="4">
-        <v>18.44736842105263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="B13">
+        <v>350.49999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4">
-        <v>6.7666666666666666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4">
-        <v>16.7638157894737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>2548.1000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4">
-        <v>17.826315789473686</v>
+      <c r="B16">
+        <v>1354.8000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="4">
-        <v>13.889473684210529</v>
+      <c r="B17">
+        <v>263.90000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B18" s="4">
-        <v>18.289473684210527</v>
+      <c r="B18">
+        <v>347.5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
-        <v>19.731578947368423</v>
+      <c r="B19">
+        <v>374.90000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>32</v>
       </c>
-      <c r="B20" s="4">
-        <v>19.394736842105264</v>
+      <c r="B20">
+        <v>368.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4">
-        <v>15.701315789473684</v>
+      <c r="B21">
+        <v>1193.3000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>10</v>
       </c>
-      <c r="B22" s="4">
-        <v>14.721052631578948</v>
+      <c r="B22">
+        <v>279.7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="4">
-        <v>14.747368421052634</v>
+      <c r="B23">
+        <v>280.20000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4">
-        <v>17.157894736842106</v>
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>29</v>
       </c>
-      <c r="B25" s="4">
-        <v>16.178947368421053</v>
+      <c r="B25">
+        <v>307.39999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="4">
-        <v>15.955263157894741</v>
+      <c r="B26">
+        <v>2425.1999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="4">
-        <v>15.007894736842104</v>
+      <c r="B27">
+        <v>1140.5999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="4">
-        <v>14.684210526315793</v>
+      <c r="B28">
+        <v>279.00000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
-        <v>16</v>
-      </c>
-      <c r="B29" s="4">
-        <v>13.642105263157895</v>
+      <c r="A29" s="4">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>259.2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>23</v>
       </c>
-      <c r="B30" s="4">
-        <v>16.763157894736842</v>
+      <c r="B30">
+        <v>318.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>31</v>
       </c>
-      <c r="B31" s="4">
-        <v>14.942105263157893</v>
+      <c r="B31">
+        <v>283.89999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="4">
-        <v>16.902631578947361</v>
+      <c r="B32">
+        <v>1284.5999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>2</v>
       </c>
-      <c r="B33" s="4">
-        <v>19.278947368421054</v>
+      <c r="B33">
+        <v>366.3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
-        <v>5</v>
-      </c>
-      <c r="B34" s="4">
-        <v>17.057894736842105</v>
+      <c r="A34" s="4">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>324.09999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>14</v>
       </c>
-      <c r="B35" s="4">
-        <v>14.994736842105265</v>
+      <c r="B35">
+        <v>284.90000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>25</v>
       </c>
-      <c r="B36" s="4">
-        <v>16.278947368421054</v>
+      <c r="B36">
+        <v>309.3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="4">
-        <v>14.392857142857142</v>
+      <c r="B37">
+        <v>201.5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="4">
-        <v>15.169230769230769</v>
+      <c r="B38">
+        <v>197.2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="4">
-        <v>15.169230769230769</v>
+      <c r="B39">
+        <v>197.2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>4.3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>4.3</v>
       </c>
     </row>
@@ -19587,114 +19613,111 @@
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="4">
-        <v>16.89671052631579</v>
+      <c r="B42">
+        <v>2568.2999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="4">
-        <v>16.751315789473683</v>
+      <c r="B43">
+        <v>1273.0999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>8</v>
       </c>
-      <c r="B44" s="4">
-        <v>18.257894736842104</v>
+      <c r="B44">
+        <v>346.9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>15</v>
       </c>
-      <c r="B45" s="4">
-        <v>13.705263157894739</v>
+      <c r="B45">
+        <v>260.40000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>27</v>
       </c>
-      <c r="B46" s="4">
-        <v>17.210526315789469</v>
+      <c r="B46">
+        <v>326.99999999999994</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>28</v>
       </c>
-      <c r="B47" s="4">
-        <v>17.831578947368421</v>
+      <c r="B47">
+        <v>338.8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="4">
-        <v>17.042105263157897</v>
+      <c r="B48">
+        <v>1295.2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>6</v>
       </c>
-      <c r="B49" s="4">
-        <v>17.110526315789475</v>
+      <c r="B49">
+        <v>325.10000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>9</v>
       </c>
-      <c r="B50" s="4">
-        <v>16.426315789473684</v>
+      <c r="B50">
+        <v>312.09999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>17</v>
       </c>
-      <c r="B51" s="4">
-        <v>15.84736842105263</v>
+      <c r="B51">
+        <v>301.09999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>22</v>
       </c>
-      <c r="B52" s="4">
-        <v>18.784210526315793</v>
+      <c r="B52">
+        <v>356.90000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="4"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="4">
-        <v>17.185491419656767</v>
+      <c r="B56">
+        <v>11015.899999999998</v>
       </c>
     </row>
   </sheetData>
@@ -19729,7 +19752,7 @@
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>19.139181286549707</v>
       </c>
     </row>
@@ -19737,47 +19760,47 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>20.625581395348838</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>19.321052631578947</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>14.973684210526313</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="4">
+        <v>19</v>
+      </c>
+      <c r="B6">
         <v>16.078947368421055</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>24</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>16.621052631578948</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>50.089999999999996</v>
       </c>
     </row>
@@ -19785,47 +19808,47 @@
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>17.63529411764706</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>17.615789473684206</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>22.189473684210526</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>26</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>17.436842105263157</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>30</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>18.44736842105263</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>6.7666666666666666</v>
       </c>
     </row>
@@ -19833,7 +19856,7 @@
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>16.7638157894737</v>
       </c>
     </row>
@@ -19841,39 +19864,39 @@
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>17.826315789473686</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>13.889473684210529</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>18.289473684210527</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>19.731578947368423</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>32</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>19.394736842105264</v>
       </c>
     </row>
@@ -19881,39 +19904,39 @@
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>15.701315789473684</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>10</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>14.721052631578948</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>14.747368421052634</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24">
         <v>17.157894736842106</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>29</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>16.178947368421053</v>
       </c>
     </row>
@@ -19921,7 +19944,7 @@
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>15.955263157894741</v>
       </c>
     </row>
@@ -19929,39 +19952,39 @@
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>15.007894736842104</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>14.684210526315793</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
-        <v>16</v>
-      </c>
-      <c r="B29" s="4">
+      <c r="A29" s="4">
+        <v>16</v>
+      </c>
+      <c r="B29">
         <v>13.642105263157895</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>23</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>16.763157894736842</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>31</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>14.942105263157893</v>
       </c>
     </row>
@@ -19969,39 +19992,39 @@
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>16.902631578947361</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>2</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>19.278947368421054</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
-        <v>5</v>
-      </c>
-      <c r="B34" s="4">
+      <c r="A34" s="4">
+        <v>5</v>
+      </c>
+      <c r="B34">
         <v>17.057894736842105</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>14</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>14.994736842105265</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>25</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>16.278947368421054</v>
       </c>
     </row>
@@ -20009,7 +20032,7 @@
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>14.392857142857142</v>
       </c>
     </row>
@@ -20017,15 +20040,15 @@
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>15.169230769230769</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>15.169230769230769</v>
       </c>
     </row>
@@ -20033,15 +20056,15 @@
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>4.3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>4.3</v>
       </c>
     </row>
@@ -20049,7 +20072,7 @@
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>16.89671052631579</v>
       </c>
     </row>
@@ -20057,39 +20080,39 @@
       <c r="A43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>16.751315789473683</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>8</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>18.257894736842104</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>15</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>13.705263157894739</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>27</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>17.210526315789469</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>28</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>17.831578947368421</v>
       </c>
     </row>
@@ -20097,39 +20120,39 @@
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>17.042105263157897</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>6</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>17.110526315789475</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>9</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>16.426315789473684</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>17</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>15.84736842105263</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>22</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>18.784210526315793</v>
       </c>
     </row>
@@ -20137,25 +20160,22 @@
       <c r="A53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="4"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>17.185491419656767</v>
       </c>
     </row>
